--- a/medicine/Autisme/Ezra_(film,_2023)/Ezra_(film,_2023).xlsx
+++ b/medicine/Autisme/Ezra_(film,_2023)/Ezra_(film,_2023).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ezra est un film américain réalisé par Tony Goldwyn et sorti en 2023.
 Il est présenté en avant-première au festival international du film de Toronto 2023.
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Max Brandel est un ancien auteur de « comédies de fin de soirée » à succès mais dont la carrière dans le stand-up est un échec. Après avoir ruiné sa carrière et son mariage, il retourne vivre chez son père Stan. Par ailleurs, il n'est pas d'accord avec ex-femme Jenna sur l'éducation de leur fils Ezra, âgé de 11 ans et atteint du syndrome d'Asperger. Max décide donc de kidnapper son fils pour un voyage à travers le pays[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max Brandel est un ancien auteur de « comédies de fin de soirée » à succès mais dont la carrière dans le stand-up est un échec. Après avoir ruiné sa carrière et son mariage, il retourne vivre chez son père Stan. Par ailleurs, il n'est pas d'accord avec ex-femme Jenna sur l'éducation de leur fils Ezra, âgé de 11 ans et atteint du syndrome d'Asperger. Max décide donc de kidnapper son fils pour un voyage à travers le pays,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Ezra
@@ -566,7 +582,7 @@
 Format : couleur
 Genre : comédie dramatique, road movie
 Durée : 100 minutes
-Dates de sortie[3] :
+Dates de sortie :
 Canada : 9 septembre 2023 (festival de Toronto)
 États-Unis : 1er octobre 2023 (festival du film de Woodstock), 31 mai 2024 (en salles)</t>
         </is>
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bobby Cannavale : Max Brandel
 Robert De Niro : Stan
@@ -640,10 +658,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le projet est initialement annoncé en mai 2022, sous le titre Inappropriate Behavior[1].
-Le tournage  débute en septembre 2022 et se déroule dans le New Jersey, Westwood and Jersey City[4],[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le projet est initialement annoncé en mai 2022, sous le titre Inappropriate Behavior.
+Le tournage  débute en septembre 2022 et se déroule dans le New Jersey, Westwood and Jersey City,.
 </t>
         </is>
       </c>
@@ -672,9 +692,11 @@
           <t>Sortie et accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ezra est présenté en avant-première mondiale au festival international du film de Toronto 2023 le 9 septembre 2023[6],[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ezra est présenté en avant-première mondiale au festival international du film de Toronto 2023 le 9 septembre 2023,.
 </t>
         </is>
       </c>
